--- a/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,9 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['16', '22', '48', '90']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -623,6 +626,9 @@
   </si>
   <si>
     <t>['86']</t>
+  </si>
+  <si>
+    <t>['9', '28', '79', '90']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1234,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1318,7 +1324,7 @@
         <v>1.25</v>
       </c>
       <c r="AT2">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1419,7 +1425,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>-1</v>
@@ -1610,7 +1616,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1700,7 +1706,7 @@
         <v>1.31</v>
       </c>
       <c r="AT4">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1801,7 +1807,7 @@
         <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -1888,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT5">
         <v>1.31</v>
@@ -2079,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT6">
         <v>0.75</v>
@@ -2270,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT7">
         <v>0.67</v>
@@ -2655,7 +2661,7 @@
         <v>1.31</v>
       </c>
       <c r="AT9">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU9">
         <v>1.59</v>
@@ -2756,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2947,7 +2953,7 @@
         <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3037,7 +3043,7 @@
         <v>1.25</v>
       </c>
       <c r="AT11">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU11">
         <v>1.18</v>
@@ -3228,7 +3234,7 @@
         <v>1.69</v>
       </c>
       <c r="AT12">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3329,7 +3335,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3416,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="AS13">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT13">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU13">
         <v>2.01</v>
@@ -3711,7 +3717,7 @@
         <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3798,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT15">
         <v>1.31</v>
@@ -3902,7 +3908,7 @@
         <v>77</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -3989,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT16">
         <v>1.67</v>
@@ -4093,7 +4099,7 @@
         <v>77</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4475,7 +4481,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4666,7 +4672,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4857,7 +4863,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4947,7 +4953,7 @@
         <v>1.69</v>
       </c>
       <c r="AT21">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5048,7 +5054,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5135,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT22">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU22">
         <v>1.55</v>
@@ -5239,7 +5245,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5329,7 +5335,7 @@
         <v>1.25</v>
       </c>
       <c r="AT23">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5517,10 +5523,10 @@
         <v>0.5</v>
       </c>
       <c r="AS24">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT24">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU24">
         <v>2.09</v>
@@ -5708,7 +5714,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT25">
         <v>0.85</v>
@@ -5812,7 +5818,7 @@
         <v>92</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -6194,7 +6200,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>-1</v>
@@ -6576,7 +6582,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6767,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6958,7 +6964,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -7149,7 +7155,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>-1</v>
@@ -7236,10 +7242,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT33">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU33">
         <v>2.04</v>
@@ -7427,10 +7433,10 @@
         <v>0.33</v>
       </c>
       <c r="AS34">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT34">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU34">
         <v>1.57</v>
@@ -7618,10 +7624,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT35">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU35">
         <v>1.68</v>
@@ -7809,10 +7815,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT36">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU36">
         <v>1.88</v>
@@ -7913,7 +7919,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8003,7 +8009,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU37">
         <v>2.07</v>
@@ -8295,7 +8301,7 @@
         <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8573,7 +8579,7 @@
         <v>0</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT40">
         <v>0.67</v>
@@ -8677,7 +8683,7 @@
         <v>77</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -8868,7 +8874,7 @@
         <v>77</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>-1</v>
@@ -8955,10 +8961,10 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT42">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU42">
         <v>1.57</v>
@@ -9149,7 +9155,7 @@
         <v>2.42</v>
       </c>
       <c r="AT43">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU43">
         <v>2.17</v>
@@ -9250,7 +9256,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9340,7 +9346,7 @@
         <v>1.25</v>
       </c>
       <c r="AT44">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU44">
         <v>1.75</v>
@@ -9528,7 +9534,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
         <v>0.5</v>
@@ -9719,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="AS46">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT46">
         <v>0.75</v>
@@ -9913,7 +9919,7 @@
         <v>2.42</v>
       </c>
       <c r="AT47">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU47">
         <v>2.27</v>
@@ -10101,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="AS48">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT48">
         <v>0.5</v>
@@ -10205,7 +10211,7 @@
         <v>106</v>
       </c>
       <c r="P49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10295,7 +10301,7 @@
         <v>1.33</v>
       </c>
       <c r="AT49">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>1.88</v>
@@ -10483,7 +10489,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
         <v>0.75</v>
@@ -10674,7 +10680,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT51">
         <v>0.67</v>
@@ -10778,7 +10784,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -10865,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT52">
         <v>0.85</v>
@@ -10969,7 +10975,7 @@
         <v>109</v>
       </c>
       <c r="P53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11059,7 +11065,7 @@
         <v>1.25</v>
       </c>
       <c r="AT53">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU53">
         <v>1.43</v>
@@ -11250,7 +11256,7 @@
         <v>1.69</v>
       </c>
       <c r="AT54">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU54">
         <v>1.64</v>
@@ -11351,7 +11357,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11438,10 +11444,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT55">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU55">
         <v>1.84</v>
@@ -11733,7 +11739,7 @@
         <v>112</v>
       </c>
       <c r="P57" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q57">
         <v>-1</v>
@@ -11820,7 +11826,7 @@
         <v>0.8</v>
       </c>
       <c r="AS57">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT57">
         <v>0.67</v>
@@ -11924,7 +11930,7 @@
         <v>113</v>
       </c>
       <c r="P58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12115,7 +12121,7 @@
         <v>114</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12205,7 +12211,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU59">
         <v>1.79</v>
@@ -12393,7 +12399,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT60">
         <v>1.67</v>
@@ -12497,7 +12503,7 @@
         <v>115</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12688,7 +12694,7 @@
         <v>77</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -12778,7 +12784,7 @@
         <v>1.69</v>
       </c>
       <c r="AT62">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -12879,7 +12885,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -12966,10 +12972,10 @@
         <v>1.83</v>
       </c>
       <c r="AS63">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU63">
         <v>1.48</v>
@@ -13070,7 +13076,7 @@
         <v>77</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13157,10 +13163,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT64">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU64">
         <v>1.66</v>
@@ -13261,7 +13267,7 @@
         <v>117</v>
       </c>
       <c r="P65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13351,7 +13357,7 @@
         <v>1.25</v>
       </c>
       <c r="AT65">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU65">
         <v>1.66</v>
@@ -13452,7 +13458,7 @@
         <v>118</v>
       </c>
       <c r="P66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13539,7 +13545,7 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT66">
         <v>0.85</v>
@@ -13643,7 +13649,7 @@
         <v>119</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14303,7 +14309,7 @@
         <v>1.83</v>
       </c>
       <c r="AS70">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT70">
         <v>1.31</v>
@@ -14407,7 +14413,7 @@
         <v>77</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14685,10 +14691,10 @@
         <v>1.71</v>
       </c>
       <c r="AS72">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT72">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU72">
         <v>1.57</v>
@@ -14789,7 +14795,7 @@
         <v>110</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14879,7 +14885,7 @@
         <v>1.25</v>
       </c>
       <c r="AT73">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU73">
         <v>1.66</v>
@@ -15067,10 +15073,10 @@
         <v>1.86</v>
       </c>
       <c r="AS74">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT74">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU74">
         <v>1.93</v>
@@ -15258,7 +15264,7 @@
         <v>0.71</v>
       </c>
       <c r="AS75">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT75">
         <v>0.5</v>
@@ -15362,7 +15368,7 @@
         <v>124</v>
       </c>
       <c r="P76" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15449,10 +15455,10 @@
         <v>1.14</v>
       </c>
       <c r="AS76">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT76">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU76">
         <v>1.49</v>
@@ -16126,7 +16132,7 @@
         <v>126</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16317,7 +16323,7 @@
         <v>127</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q81">
         <v>-1</v>
@@ -16595,10 +16601,10 @@
         <v>1.63</v>
       </c>
       <c r="AS82">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT82">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU82">
         <v>1.38</v>
@@ -16699,7 +16705,7 @@
         <v>77</v>
       </c>
       <c r="P83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -16786,10 +16792,10 @@
         <v>1.38</v>
       </c>
       <c r="AS83">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT83">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU83">
         <v>1.51</v>
@@ -16890,7 +16896,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -17171,7 +17177,7 @@
         <v>2.42</v>
       </c>
       <c r="AT85">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU85">
         <v>1.97</v>
@@ -17359,7 +17365,7 @@
         <v>0.63</v>
       </c>
       <c r="AS86">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT86">
         <v>0.5</v>
@@ -17845,7 +17851,7 @@
         <v>132</v>
       </c>
       <c r="P89" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -17932,7 +17938,7 @@
         <v>1.88</v>
       </c>
       <c r="AS89">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT89">
         <v>1.67</v>
@@ -18227,7 +18233,7 @@
         <v>133</v>
       </c>
       <c r="P91" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18317,7 +18323,7 @@
         <v>1.31</v>
       </c>
       <c r="AT91">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU91">
         <v>1.59</v>
@@ -18418,7 +18424,7 @@
         <v>134</v>
       </c>
       <c r="P92" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18508,7 +18514,7 @@
         <v>1.31</v>
       </c>
       <c r="AT92">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU92">
         <v>1.54</v>
@@ -18609,7 +18615,7 @@
         <v>77</v>
       </c>
       <c r="P93" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -18699,7 +18705,7 @@
         <v>1.25</v>
       </c>
       <c r="AT93">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU93">
         <v>1.43</v>
@@ -19269,7 +19275,7 @@
         <v>1.78</v>
       </c>
       <c r="AS96">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT96">
         <v>1.31</v>
@@ -19460,7 +19466,7 @@
         <v>0.44</v>
       </c>
       <c r="AS97">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT97">
         <v>0.75</v>
@@ -19564,7 +19570,7 @@
         <v>77</v>
       </c>
       <c r="P98" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -19651,7 +19657,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS98">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
         <v>0.67</v>
@@ -19845,7 +19851,7 @@
         <v>1.31</v>
       </c>
       <c r="AT99">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU99">
         <v>1.5</v>
@@ -19946,7 +19952,7 @@
         <v>136</v>
       </c>
       <c r="P100" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20137,7 +20143,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20418,7 +20424,7 @@
         <v>1.69</v>
       </c>
       <c r="AT102">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU102">
         <v>1.64</v>
@@ -20609,7 +20615,7 @@
         <v>1.25</v>
       </c>
       <c r="AT103">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU103">
         <v>1.34</v>
@@ -20901,7 +20907,7 @@
         <v>140</v>
       </c>
       <c r="P105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -20988,10 +20994,10 @@
         <v>1.5</v>
       </c>
       <c r="AS105">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT105">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU105">
         <v>1.63</v>
@@ -21179,7 +21185,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT106">
         <v>1.31</v>
@@ -21283,7 +21289,7 @@
         <v>142</v>
       </c>
       <c r="P107" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -21943,7 +21949,7 @@
         <v>0.73</v>
       </c>
       <c r="AS110">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AT110">
         <v>0.85</v>
@@ -22047,7 +22053,7 @@
         <v>117</v>
       </c>
       <c r="P111" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22137,7 +22143,7 @@
         <v>1.69</v>
       </c>
       <c r="AT111">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU111">
         <v>1.64</v>
@@ -22328,7 +22334,7 @@
         <v>1.25</v>
       </c>
       <c r="AT112">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU112">
         <v>1.47</v>
@@ -22516,10 +22522,10 @@
         <v>1.4</v>
       </c>
       <c r="AS113">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT113">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU113">
         <v>1.65</v>
@@ -22707,10 +22713,10 @@
         <v>1.36</v>
       </c>
       <c r="AS114">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU114">
         <v>1.93</v>
@@ -22811,7 +22817,7 @@
         <v>145</v>
       </c>
       <c r="P115" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q115">
         <v>1</v>
@@ -23002,7 +23008,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q116">
         <v>1</v>
@@ -23384,7 +23390,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23575,7 +23581,7 @@
         <v>148</v>
       </c>
       <c r="P119" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23717,6 +23723,770 @@
       </c>
       <c r="BK119">
         <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>5357800</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44997.41666666666</v>
+      </c>
+      <c r="F120">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" t="s">
+        <v>72</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>77</v>
+      </c>
+      <c r="P120" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q120">
+        <v>4</v>
+      </c>
+      <c r="R120">
+        <v>7</v>
+      </c>
+      <c r="S120">
+        <v>11</v>
+      </c>
+      <c r="T120">
+        <v>3.2</v>
+      </c>
+      <c r="U120">
+        <v>1.91</v>
+      </c>
+      <c r="V120">
+        <v>3.75</v>
+      </c>
+      <c r="W120">
+        <v>1.59</v>
+      </c>
+      <c r="X120">
+        <v>2.25</v>
+      </c>
+      <c r="Y120">
+        <v>3.48</v>
+      </c>
+      <c r="Z120">
+        <v>1.25</v>
+      </c>
+      <c r="AA120">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB120">
+        <v>1.03</v>
+      </c>
+      <c r="AC120">
+        <v>2.38</v>
+      </c>
+      <c r="AD120">
+        <v>2.8</v>
+      </c>
+      <c r="AE120">
+        <v>3</v>
+      </c>
+      <c r="AF120">
+        <v>1.06</v>
+      </c>
+      <c r="AG120">
+        <v>7.2</v>
+      </c>
+      <c r="AH120">
+        <v>1.47</v>
+      </c>
+      <c r="AI120">
+        <v>2.51</v>
+      </c>
+      <c r="AJ120">
+        <v>2.5</v>
+      </c>
+      <c r="AK120">
+        <v>1.5</v>
+      </c>
+      <c r="AL120">
+        <v>2.02</v>
+      </c>
+      <c r="AM120">
+        <v>1.7</v>
+      </c>
+      <c r="AN120">
+        <v>1.33</v>
+      </c>
+      <c r="AO120">
+        <v>1.35</v>
+      </c>
+      <c r="AP120">
+        <v>1.47</v>
+      </c>
+      <c r="AQ120">
+        <v>1.75</v>
+      </c>
+      <c r="AR120">
+        <v>1.42</v>
+      </c>
+      <c r="AS120">
+        <v>1.62</v>
+      </c>
+      <c r="AT120">
+        <v>1.54</v>
+      </c>
+      <c r="AU120">
+        <v>1.65</v>
+      </c>
+      <c r="AV120">
+        <v>1.52</v>
+      </c>
+      <c r="AW120">
+        <v>3.17</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>1.8</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>5</v>
+      </c>
+      <c r="BG120">
+        <v>7</v>
+      </c>
+      <c r="BH120">
+        <v>6</v>
+      </c>
+      <c r="BI120">
+        <v>4</v>
+      </c>
+      <c r="BJ120">
+        <v>11</v>
+      </c>
+      <c r="BK120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>5357804</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F121">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" t="s">
+        <v>71</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>2</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>5</v>
+      </c>
+      <c r="O121" t="s">
+        <v>92</v>
+      </c>
+      <c r="P121" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <v>6</v>
+      </c>
+      <c r="S121">
+        <v>9</v>
+      </c>
+      <c r="T121">
+        <v>5</v>
+      </c>
+      <c r="U121">
+        <v>2.2</v>
+      </c>
+      <c r="V121">
+        <v>2.2</v>
+      </c>
+      <c r="W121">
+        <v>1.45</v>
+      </c>
+      <c r="X121">
+        <v>2.6</v>
+      </c>
+      <c r="Y121">
+        <v>3</v>
+      </c>
+      <c r="Z121">
+        <v>1.35</v>
+      </c>
+      <c r="AA121">
+        <v>7</v>
+      </c>
+      <c r="AB121">
+        <v>1.07</v>
+      </c>
+      <c r="AC121">
+        <v>4.5</v>
+      </c>
+      <c r="AD121">
+        <v>3.75</v>
+      </c>
+      <c r="AE121">
+        <v>1.62</v>
+      </c>
+      <c r="AF121">
+        <v>1.06</v>
+      </c>
+      <c r="AG121">
+        <v>9.65</v>
+      </c>
+      <c r="AH121">
+        <v>1.34</v>
+      </c>
+      <c r="AI121">
+        <v>2.98</v>
+      </c>
+      <c r="AJ121">
+        <v>2</v>
+      </c>
+      <c r="AK121">
+        <v>1.8</v>
+      </c>
+      <c r="AL121">
+        <v>2.05</v>
+      </c>
+      <c r="AM121">
+        <v>1.7</v>
+      </c>
+      <c r="AN121">
+        <v>2.15</v>
+      </c>
+      <c r="AO121">
+        <v>1.27</v>
+      </c>
+      <c r="AP121">
+        <v>1.16</v>
+      </c>
+      <c r="AQ121">
+        <v>1.2</v>
+      </c>
+      <c r="AR121">
+        <v>1.33</v>
+      </c>
+      <c r="AS121">
+        <v>1.09</v>
+      </c>
+      <c r="AT121">
+        <v>1.46</v>
+      </c>
+      <c r="AU121">
+        <v>1.38</v>
+      </c>
+      <c r="AV121">
+        <v>1.62</v>
+      </c>
+      <c r="AW121">
+        <v>3</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>2</v>
+      </c>
+      <c r="BG121">
+        <v>5</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>2</v>
+      </c>
+      <c r="BK121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5357802</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F122">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" t="s">
+        <v>65</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>149</v>
+      </c>
+      <c r="P122" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q122">
+        <v>4</v>
+      </c>
+      <c r="R122">
+        <v>5</v>
+      </c>
+      <c r="S122">
+        <v>9</v>
+      </c>
+      <c r="T122">
+        <v>1.95</v>
+      </c>
+      <c r="U122">
+        <v>2.2</v>
+      </c>
+      <c r="V122">
+        <v>7</v>
+      </c>
+      <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>2.75</v>
+      </c>
+      <c r="Y122">
+        <v>2.89</v>
+      </c>
+      <c r="Z122">
+        <v>1.36</v>
+      </c>
+      <c r="AA122">
+        <v>7</v>
+      </c>
+      <c r="AB122">
+        <v>1.06</v>
+      </c>
+      <c r="AC122">
+        <v>1.4</v>
+      </c>
+      <c r="AD122">
+        <v>3.8</v>
+      </c>
+      <c r="AE122">
+        <v>7</v>
+      </c>
+      <c r="AF122">
+        <v>1.01</v>
+      </c>
+      <c r="AG122">
+        <v>10.75</v>
+      </c>
+      <c r="AH122">
+        <v>1.27</v>
+      </c>
+      <c r="AI122">
+        <v>3.4</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.73</v>
+      </c>
+      <c r="AL122">
+        <v>2.3</v>
+      </c>
+      <c r="AM122">
+        <v>1.55</v>
+      </c>
+      <c r="AN122">
+        <v>1.04</v>
+      </c>
+      <c r="AO122">
+        <v>1.1</v>
+      </c>
+      <c r="AP122">
+        <v>2.8</v>
+      </c>
+      <c r="AQ122">
+        <v>2.09</v>
+      </c>
+      <c r="AR122">
+        <v>1.27</v>
+      </c>
+      <c r="AS122">
+        <v>2.17</v>
+      </c>
+      <c r="AT122">
+        <v>1.17</v>
+      </c>
+      <c r="AU122">
+        <v>1.8</v>
+      </c>
+      <c r="AV122">
+        <v>1.33</v>
+      </c>
+      <c r="AW122">
+        <v>3.13</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>1.83</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>5</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>5</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>5357803</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F123">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>70</v>
+      </c>
+      <c r="H123" t="s">
+        <v>67</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>77</v>
+      </c>
+      <c r="P123" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q123">
+        <v>2</v>
+      </c>
+      <c r="R123">
+        <v>4</v>
+      </c>
+      <c r="S123">
+        <v>6</v>
+      </c>
+      <c r="T123">
+        <v>1.95</v>
+      </c>
+      <c r="U123">
+        <v>2.2</v>
+      </c>
+      <c r="V123">
+        <v>7</v>
+      </c>
+      <c r="W123">
+        <v>1.46</v>
+      </c>
+      <c r="X123">
+        <v>2.55</v>
+      </c>
+      <c r="Y123">
+        <v>2.95</v>
+      </c>
+      <c r="Z123">
+        <v>1.35</v>
+      </c>
+      <c r="AA123">
+        <v>7.4</v>
+      </c>
+      <c r="AB123">
+        <v>1.06</v>
+      </c>
+      <c r="AC123">
+        <v>1.37</v>
+      </c>
+      <c r="AD123">
+        <v>4</v>
+      </c>
+      <c r="AE123">
+        <v>7.5</v>
+      </c>
+      <c r="AF123">
+        <v>1.07</v>
+      </c>
+      <c r="AG123">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH123">
+        <v>1.35</v>
+      </c>
+      <c r="AI123">
+        <v>2.93</v>
+      </c>
+      <c r="AJ123">
+        <v>2.05</v>
+      </c>
+      <c r="AK123">
+        <v>1.69</v>
+      </c>
+      <c r="AL123">
+        <v>2.45</v>
+      </c>
+      <c r="AM123">
+        <v>1.5</v>
+      </c>
+      <c r="AN123">
+        <v>1.08</v>
+      </c>
+      <c r="AO123">
+        <v>1.2</v>
+      </c>
+      <c r="AP123">
+        <v>2.2</v>
+      </c>
+      <c r="AQ123">
+        <v>1.36</v>
+      </c>
+      <c r="AR123">
+        <v>1.55</v>
+      </c>
+      <c r="AS123">
+        <v>1.33</v>
+      </c>
+      <c r="AT123">
+        <v>1.5</v>
+      </c>
+      <c r="AU123">
+        <v>1.4</v>
+      </c>
+      <c r="AV123">
+        <v>1.36</v>
+      </c>
+      <c r="AW123">
+        <v>2.76</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>0</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>-1</v>
+      </c>
+      <c r="BG123">
+        <v>-1</v>
+      </c>
+      <c r="BH123">
+        <v>-1</v>
+      </c>
+      <c r="BI123">
+        <v>-1</v>
+      </c>
+      <c r="BJ123">
+        <v>-1</v>
+      </c>
+      <c r="BK123">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="206">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -466,6 +466,9 @@
     <t>['16', '22', '48', '90']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['33']</t>
   </si>
   <si>
@@ -625,10 +628,10 @@
     <t>['9', '85', '89']</t>
   </si>
   <si>
-    <t>['86']</t>
+    <t>['9', '28', '79', '90']</t>
   </si>
   <si>
-    <t>['9', '28', '79', '90']</t>
+    <t>['55']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK123"/>
+  <dimension ref="A1:BK124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1234,7 +1237,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1425,7 +1428,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>-1</v>
@@ -1616,7 +1619,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1807,7 +1810,7 @@
         <v>77</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>8</v>
@@ -2470,7 +2473,7 @@
         <v>2.42</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2762,7 +2765,7 @@
         <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -2953,7 +2956,7 @@
         <v>77</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>4</v>
@@ -3335,7 +3338,7 @@
         <v>83</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -3613,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT14">
         <v>0.85</v>
@@ -3717,7 +3720,7 @@
         <v>77</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3908,7 +3911,7 @@
         <v>77</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>4</v>
@@ -4099,7 +4102,7 @@
         <v>77</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4189,7 +4192,7 @@
         <v>1.25</v>
       </c>
       <c r="AT17">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU17">
         <v>1.19</v>
@@ -4481,7 +4484,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>8</v>
@@ -4672,7 +4675,7 @@
         <v>86</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4863,7 +4866,7 @@
         <v>87</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5054,7 +5057,7 @@
         <v>88</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -5245,7 +5248,7 @@
         <v>89</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -5332,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT23">
         <v>1.5</v>
@@ -5818,7 +5821,7 @@
         <v>92</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>9</v>
@@ -5905,7 +5908,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT26">
         <v>1.67</v>
@@ -6200,7 +6203,7 @@
         <v>94</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>-1</v>
@@ -6582,7 +6585,7 @@
         <v>95</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q30">
         <v>4</v>
@@ -6773,7 +6776,7 @@
         <v>77</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -6964,7 +6967,7 @@
         <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q32">
         <v>10</v>
@@ -7051,10 +7054,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU32">
         <v>1.95</v>
@@ -7155,7 +7158,7 @@
         <v>97</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>-1</v>
@@ -7919,7 +7922,7 @@
         <v>77</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8301,7 +8304,7 @@
         <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8683,7 +8686,7 @@
         <v>77</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -8874,7 +8877,7 @@
         <v>77</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>-1</v>
@@ -9256,7 +9259,7 @@
         <v>102</v>
       </c>
       <c r="P44" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q44">
         <v>4</v>
@@ -9343,7 +9346,7 @@
         <v>1.75</v>
       </c>
       <c r="AS44">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT44">
         <v>1.54</v>
@@ -9537,7 +9540,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU45">
         <v>2.04</v>
@@ -10110,7 +10113,7 @@
         <v>1.09</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU48">
         <v>1.57</v>
@@ -10211,7 +10214,7 @@
         <v>106</v>
       </c>
       <c r="P49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>10</v>
@@ -10784,7 +10787,7 @@
         <v>108</v>
       </c>
       <c r="P52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>12</v>
@@ -10975,7 +10978,7 @@
         <v>109</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11357,7 +11360,7 @@
         <v>111</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>9</v>
@@ -11635,7 +11638,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT56">
         <v>1.31</v>
@@ -11739,7 +11742,7 @@
         <v>112</v>
       </c>
       <c r="P57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q57">
         <v>-1</v>
@@ -11930,7 +11933,7 @@
         <v>113</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12020,7 +12023,7 @@
         <v>1.31</v>
       </c>
       <c r="AT58">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU58">
         <v>1.52</v>
@@ -12121,7 +12124,7 @@
         <v>114</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>1</v>
@@ -12503,7 +12506,7 @@
         <v>115</v>
       </c>
       <c r="P61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -12694,7 +12697,7 @@
         <v>77</v>
       </c>
       <c r="P62" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -12885,7 +12888,7 @@
         <v>116</v>
       </c>
       <c r="P63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13076,7 +13079,7 @@
         <v>77</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13267,7 +13270,7 @@
         <v>117</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q65">
         <v>2</v>
@@ -13354,7 +13357,7 @@
         <v>0.83</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT65">
         <v>1.46</v>
@@ -13458,7 +13461,7 @@
         <v>118</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13649,7 +13652,7 @@
         <v>119</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -13739,7 +13742,7 @@
         <v>1.33</v>
       </c>
       <c r="AT67">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU67">
         <v>1.78</v>
@@ -14413,7 +14416,7 @@
         <v>77</v>
       </c>
       <c r="P71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>8</v>
@@ -14795,7 +14798,7 @@
         <v>110</v>
       </c>
       <c r="P73" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14882,7 +14885,7 @@
         <v>1.14</v>
       </c>
       <c r="AS73">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT73">
         <v>1.17</v>
@@ -15267,7 +15270,7 @@
         <v>1.62</v>
       </c>
       <c r="AT75">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU75">
         <v>1.64</v>
@@ -15368,7 +15371,7 @@
         <v>124</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -16132,7 +16135,7 @@
         <v>126</v>
       </c>
       <c r="P80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -16323,7 +16326,7 @@
         <v>127</v>
       </c>
       <c r="P81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>-1</v>
@@ -16705,7 +16708,7 @@
         <v>77</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -16896,7 +16899,7 @@
         <v>128</v>
       </c>
       <c r="P84" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q84">
         <v>-1</v>
@@ -16983,7 +16986,7 @@
         <v>0.5</v>
       </c>
       <c r="AS84">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT84">
         <v>0.75</v>
@@ -17368,7 +17371,7 @@
         <v>2.17</v>
       </c>
       <c r="AT86">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU86">
         <v>1.86</v>
@@ -17851,7 +17854,7 @@
         <v>132</v>
       </c>
       <c r="P89" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18233,7 +18236,7 @@
         <v>133</v>
       </c>
       <c r="P91" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q91">
         <v>5</v>
@@ -18424,7 +18427,7 @@
         <v>134</v>
       </c>
       <c r="P92" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18615,7 +18618,7 @@
         <v>77</v>
       </c>
       <c r="P93" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q93">
         <v>4</v>
@@ -19084,7 +19087,7 @@
         <v>2</v>
       </c>
       <c r="AS95">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT95">
         <v>1.67</v>
@@ -19570,7 +19573,7 @@
         <v>77</v>
       </c>
       <c r="P98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -19952,7 +19955,7 @@
         <v>136</v>
       </c>
       <c r="P100" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20042,7 +20045,7 @@
         <v>2.42</v>
       </c>
       <c r="AT100">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU100">
         <v>1.94</v>
@@ -20143,7 +20146,7 @@
         <v>116</v>
       </c>
       <c r="P101" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20803,7 +20806,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT104">
         <v>0.85</v>
@@ -20907,7 +20910,7 @@
         <v>140</v>
       </c>
       <c r="P105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q105">
         <v>5</v>
@@ -21289,7 +21292,7 @@
         <v>142</v>
       </c>
       <c r="P107" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -22053,7 +22056,7 @@
         <v>117</v>
       </c>
       <c r="P111" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q111">
         <v>2</v>
@@ -22331,7 +22334,7 @@
         <v>1.4</v>
       </c>
       <c r="AS112">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT112">
         <v>1.5</v>
@@ -22817,7 +22820,7 @@
         <v>145</v>
       </c>
       <c r="P115" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q115">
         <v>1</v>
@@ -23008,7 +23011,7 @@
         <v>146</v>
       </c>
       <c r="P116" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q116">
         <v>1</v>
@@ -23390,7 +23393,7 @@
         <v>147</v>
       </c>
       <c r="P118" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23581,7 +23584,7 @@
         <v>148</v>
       </c>
       <c r="P119" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -23772,7 +23775,7 @@
         <v>77</v>
       </c>
       <c r="P120" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24487,6 +24490,197 @@
       </c>
       <c r="BK123">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>5357801</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44998.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>73</v>
+      </c>
+      <c r="H124" t="s">
+        <v>66</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>150</v>
+      </c>
+      <c r="P124" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q124">
+        <v>6</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>10</v>
+      </c>
+      <c r="T124">
+        <v>3.2</v>
+      </c>
+      <c r="U124">
+        <v>1.91</v>
+      </c>
+      <c r="V124">
+        <v>3.75</v>
+      </c>
+      <c r="W124">
+        <v>1.52</v>
+      </c>
+      <c r="X124">
+        <v>2.2</v>
+      </c>
+      <c r="Y124">
+        <v>3.7</v>
+      </c>
+      <c r="Z124">
+        <v>1.24</v>
+      </c>
+      <c r="AA124">
+        <v>8.5</v>
+      </c>
+      <c r="AB124">
+        <v>1.04</v>
+      </c>
+      <c r="AC124">
+        <v>2.45</v>
+      </c>
+      <c r="AD124">
+        <v>2.8</v>
+      </c>
+      <c r="AE124">
+        <v>3</v>
+      </c>
+      <c r="AF124">
+        <v>1.1</v>
+      </c>
+      <c r="AG124">
+        <v>6.8</v>
+      </c>
+      <c r="AH124">
+        <v>1.5</v>
+      </c>
+      <c r="AI124">
+        <v>2.45</v>
+      </c>
+      <c r="AJ124">
+        <v>2.6</v>
+      </c>
+      <c r="AK124">
+        <v>1.48</v>
+      </c>
+      <c r="AL124">
+        <v>2</v>
+      </c>
+      <c r="AM124">
+        <v>1.7</v>
+      </c>
+      <c r="AN124">
+        <v>1.2</v>
+      </c>
+      <c r="AO124">
+        <v>1.4</v>
+      </c>
+      <c r="AP124">
+        <v>1.47</v>
+      </c>
+      <c r="AQ124">
+        <v>1.25</v>
+      </c>
+      <c r="AR124">
+        <v>0.5</v>
+      </c>
+      <c r="AS124">
+        <v>1.23</v>
+      </c>
+      <c r="AT124">
+        <v>0.55</v>
+      </c>
+      <c r="AU124">
+        <v>1.43</v>
+      </c>
+      <c r="AV124">
+        <v>1.34</v>
+      </c>
+      <c r="AW124">
+        <v>2.77</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>7</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>13</v>
+      </c>
+      <c r="BI124">
+        <v>4</v>
+      </c>
+      <c r="BJ124">
+        <v>20</v>
+      </c>
+      <c r="BK124">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK124"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT4" t="n">
         <v>1.54</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.33</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT9" t="n">
         <v>1.17</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT11" t="n">
         <v>1.54</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3133,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU13" t="n">
         <v>2.01</v>
@@ -3339,7 +3339,7 @@
         <v>1.23</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.17</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.09</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT17" t="n">
         <v>0.55</v>
@@ -4151,7 +4151,7 @@
         <v>2.42</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU18" t="n">
         <v>2.02</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU19" t="n">
         <v>2.21</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT20" t="n">
         <v>0.75</v>
@@ -4757,7 +4757,7 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT21" t="n">
         <v>1.54</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT22" t="n">
         <v>1.17</v>
@@ -5369,7 +5369,7 @@
         <v>2.17</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU24" t="n">
         <v>2.09</v>
@@ -5572,7 +5572,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>2.04</v>
@@ -5775,7 +5775,7 @@
         <v>1.23</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU26" t="n">
         <v>1.73</v>
@@ -5978,7 +5978,7 @@
         <v>2.42</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU27" t="n">
         <v>2.02</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT28" t="n">
         <v>0.75</v>
@@ -6381,10 +6381,10 @@
         <v>0.33</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU29" t="n">
         <v>2.48</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU30" t="n">
         <v>1.25</v>
@@ -6787,10 +6787,10 @@
         <v>1.33</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU31" t="n">
         <v>1.5</v>
@@ -7399,7 +7399,7 @@
         <v>1.09</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU34" t="n">
         <v>1.57</v>
@@ -7599,7 +7599,7 @@
         <v>2.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT35" t="n">
         <v>1.54</v>
@@ -8005,10 +8005,10 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU37" t="n">
         <v>2.07</v>
@@ -8208,10 +8208,10 @@
         <v>1.75</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU38" t="n">
         <v>1.98</v>
@@ -8411,10 +8411,10 @@
         <v>1.75</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU39" t="n">
         <v>1.35</v>
@@ -8614,10 +8614,10 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -8817,10 +8817,10 @@
         <v>0.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.54</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT49" t="n">
         <v>1.5</v>
@@ -10850,7 +10850,7 @@
         <v>2.17</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU51" t="n">
         <v>1.76</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.57</v>
@@ -11253,7 +11253,7 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU54" t="n">
         <v>1.64</v>
@@ -11865,7 +11865,7 @@
         <v>1.23</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU56" t="n">
         <v>1.74</v>
@@ -12068,7 +12068,7 @@
         <v>1.09</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12268,7 +12268,7 @@
         <v>0.8</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT58" t="n">
         <v>0.55</v>
@@ -12471,7 +12471,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT59" t="n">
         <v>1.17</v>
@@ -12677,7 +12677,7 @@
         <v>1.33</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU60" t="n">
         <v>1.72</v>
@@ -13080,7 +13080,7 @@
         <v>0.83</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT62" t="n">
         <v>1.17</v>
@@ -13486,7 +13486,7 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -13692,7 +13692,7 @@
         <v>1.23</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU65" t="n">
         <v>1.66</v>
@@ -13895,7 +13895,7 @@
         <v>2.17</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU66" t="n">
         <v>1.93</v>
@@ -14095,7 +14095,7 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT67" t="n">
         <v>0.55</v>
@@ -14298,7 +14298,7 @@
         <v>0.17</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT68" t="n">
         <v>0.75</v>
@@ -14501,10 +14501,10 @@
         <v>0.67</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -14707,7 +14707,7 @@
         <v>1.09</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU70" t="n">
         <v>1.57</v>
@@ -14910,7 +14910,7 @@
         <v>2.42</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU71" t="n">
         <v>2</v>
@@ -15719,7 +15719,7 @@
         <v>0.71</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT75" t="n">
         <v>0.55</v>
@@ -15925,7 +15925,7 @@
         <v>1.33</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU76" t="n">
         <v>1.49</v>
@@ -16125,10 +16125,10 @@
         <v>0.57</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU77" t="n">
         <v>1.64</v>
@@ -16328,10 +16328,10 @@
         <v>1.71</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU78" t="n">
         <v>1.43</v>
@@ -16534,7 +16534,7 @@
         <v>2.42</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU79" t="n">
         <v>1.97</v>
@@ -16734,7 +16734,7 @@
         <v>0.14</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT80" t="n">
         <v>0.75</v>
@@ -16937,10 +16937,10 @@
         <v>1.71</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU81" t="n">
         <v>1.59</v>
@@ -18155,10 +18155,10 @@
         <v>1.88</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU87" t="n">
         <v>1.64</v>
@@ -18358,10 +18358,10 @@
         <v>0.63</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU88" t="n">
         <v>1.75</v>
@@ -18561,10 +18561,10 @@
         <v>1.88</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU89" t="n">
         <v>1.62</v>
@@ -18764,10 +18764,10 @@
         <v>0.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU90" t="n">
         <v>1.43</v>
@@ -18967,10 +18967,10 @@
         <v>1.38</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU91" t="n">
         <v>1.59</v>
@@ -19170,7 +19170,7 @@
         <v>1.67</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT92" t="n">
         <v>1.54</v>
@@ -19373,10 +19373,10 @@
         <v>1.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU93" t="n">
         <v>1.43</v>
@@ -19576,10 +19576,10 @@
         <v>0.78</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU94" t="n">
         <v>1.64</v>
@@ -19782,7 +19782,7 @@
         <v>1.23</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU95" t="n">
         <v>1.62</v>
@@ -19982,10 +19982,10 @@
         <v>1.78</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU96" t="n">
         <v>1.65</v>
@@ -20391,7 +20391,7 @@
         <v>1.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU98" t="n">
         <v>1.55</v>
@@ -20591,7 +20591,7 @@
         <v>1.56</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT99" t="n">
         <v>1.17</v>
@@ -20997,10 +20997,10 @@
         <v>1.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU101" t="n">
         <v>1.75</v>
@@ -21200,7 +21200,7 @@
         <v>1.56</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT102" t="n">
         <v>1.5</v>
@@ -21403,7 +21403,7 @@
         <v>1.6</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT103" t="n">
         <v>1.54</v>
@@ -21609,7 +21609,7 @@
         <v>1.23</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU104" t="n">
         <v>1.52</v>
@@ -21809,10 +21809,10 @@
         <v>1.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU105" t="n">
         <v>1.63</v>
@@ -22015,7 +22015,7 @@
         <v>2.17</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU106" t="n">
         <v>1.93</v>
@@ -22218,7 +22218,7 @@
         <v>2.42</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU107" t="n">
         <v>1.99</v>
@@ -22418,7 +22418,7 @@
         <v>0.7</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT108" t="n">
         <v>0.75</v>
@@ -22621,10 +22621,10 @@
         <v>1.45</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU109" t="n">
         <v>1.7</v>
@@ -22827,7 +22827,7 @@
         <v>1.33</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU110" t="n">
         <v>1.46</v>
@@ -23027,7 +23027,7 @@
         <v>1.45</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT111" t="n">
         <v>1.54</v>
@@ -23433,7 +23433,7 @@
         <v>1.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT113" t="n">
         <v>1.17</v>
@@ -23639,7 +23639,7 @@
         <v>2.17</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU114" t="n">
         <v>1.93</v>
@@ -23839,10 +23839,10 @@
         <v>1.73</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AU115" t="n">
         <v>1.5</v>
@@ -24042,10 +24042,10 @@
         <v>0.73</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU116" t="n">
         <v>1.37</v>
@@ -24245,7 +24245,7 @@
         <v>0.73</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT117" t="n">
         <v>0.75</v>
@@ -24448,10 +24448,10 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -24654,7 +24654,7 @@
         <v>2.42</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AU119" t="n">
         <v>1.96</v>
@@ -24854,7 +24854,7 @@
         <v>1.42</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AT120" t="n">
         <v>1.54</v>
@@ -25060,7 +25060,7 @@
         <v>1.09</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU121" t="n">
         <v>1.38</v>
@@ -25721,6 +25721,1021 @@
       </c>
       <c r="BK124" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5357807</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45003.41666666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>26</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Dečić</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T125" t="n">
+        <v>4</v>
+      </c>
+      <c r="U125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X125" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5357806</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>26</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['13']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2</v>
+      </c>
+      <c r="R126" t="n">
+        <v>3</v>
+      </c>
+      <c r="S126" t="n">
+        <v>5</v>
+      </c>
+      <c r="T126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V126" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5357808</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>26</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>FK Jezero Plav</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Budućnost</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="n">
+        <v>2</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['14', '50']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2</v>
+      </c>
+      <c r="S127" t="n">
+        <v>7</v>
+      </c>
+      <c r="T127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5357805</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45003.58333333334</v>
+      </c>
+      <c r="F128" t="n">
+        <v>26</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>3</v>
+      </c>
+      <c r="R128" t="n">
+        <v>9</v>
+      </c>
+      <c r="S128" t="n">
+        <v>12</v>
+      </c>
+      <c r="T128" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X128" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5357809</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45003.58333333334</v>
+      </c>
+      <c r="F129" t="n">
+        <v>26</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Mornar</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Iskra</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>2</v>
+      </c>
+      <c r="R129" t="n">
+        <v>4</v>
+      </c>
+      <c r="S129" t="n">
+        <v>6</v>
+      </c>
+      <c r="T129" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U129" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V129" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X129" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
@@ -24124,7 +24124,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>5357802</v>
+        <v>5357803</v>
       </c>
       <c r="C122" t="s">
         <v>63</v>
@@ -24139,43 +24139,43 @@
         <v>25</v>
       </c>
       <c r="G122" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H122" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122">
         <v>0</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M122">
         <v>0</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="P122" t="s">
         <v>77</v>
       </c>
       <c r="Q122">
+        <v>2</v>
+      </c>
+      <c r="R122">
         <v>4</v>
       </c>
-      <c r="R122">
-        <v>5</v>
-      </c>
       <c r="S122">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T122">
         <v>1.95</v>
@@ -24187,85 +24187,85 @@
         <v>7</v>
       </c>
       <c r="W122">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="X122">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Y122">
-        <v>2.89</v>
+        <v>2.95</v>
       </c>
       <c r="Z122">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AA122">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AB122">
         <v>1.06</v>
       </c>
       <c r="AC122">
+        <v>1.37</v>
+      </c>
+      <c r="AD122">
+        <v>4</v>
+      </c>
+      <c r="AE122">
+        <v>7.5</v>
+      </c>
+      <c r="AF122">
+        <v>1.07</v>
+      </c>
+      <c r="AG122">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AH122">
+        <v>1.35</v>
+      </c>
+      <c r="AI122">
+        <v>2.93</v>
+      </c>
+      <c r="AJ122">
+        <v>2.05</v>
+      </c>
+      <c r="AK122">
+        <v>1.69</v>
+      </c>
+      <c r="AL122">
+        <v>2.45</v>
+      </c>
+      <c r="AM122">
+        <v>1.5</v>
+      </c>
+      <c r="AN122">
+        <v>1.08</v>
+      </c>
+      <c r="AO122">
+        <v>1.2</v>
+      </c>
+      <c r="AP122">
+        <v>2.2</v>
+      </c>
+      <c r="AQ122">
+        <v>1.36</v>
+      </c>
+      <c r="AR122">
+        <v>1.55</v>
+      </c>
+      <c r="AS122">
+        <v>1.33</v>
+      </c>
+      <c r="AT122">
+        <v>1.5</v>
+      </c>
+      <c r="AU122">
         <v>1.4</v>
       </c>
-      <c r="AD122">
-        <v>3.8</v>
-      </c>
-      <c r="AE122">
-        <v>7</v>
-      </c>
-      <c r="AF122">
-        <v>1.01</v>
-      </c>
-      <c r="AG122">
-        <v>10.75</v>
-      </c>
-      <c r="AH122">
-        <v>1.27</v>
-      </c>
-      <c r="AI122">
-        <v>3.4</v>
-      </c>
-      <c r="AJ122">
-        <v>2</v>
-      </c>
-      <c r="AK122">
-        <v>1.73</v>
-      </c>
-      <c r="AL122">
-        <v>2.3</v>
-      </c>
-      <c r="AM122">
-        <v>1.55</v>
-      </c>
-      <c r="AN122">
-        <v>1.04</v>
-      </c>
-      <c r="AO122">
-        <v>1.1</v>
-      </c>
-      <c r="AP122">
-        <v>2.8</v>
-      </c>
-      <c r="AQ122">
-        <v>2.09</v>
-      </c>
-      <c r="AR122">
-        <v>1.27</v>
-      </c>
-      <c r="AS122">
-        <v>2.17</v>
-      </c>
-      <c r="AT122">
-        <v>1.17</v>
-      </c>
-      <c r="AU122">
-        <v>1.8</v>
-      </c>
       <c r="AV122">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AW122">
-        <v>3.13</v>
+        <v>2.76</v>
       </c>
       <c r="AX122">
         <v>0</v>
@@ -24280,7 +24280,7 @@
         <v>0</v>
       </c>
       <c r="BB122">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BC122">
         <v>0</v>
@@ -24292,22 +24292,22 @@
         <v>0</v>
       </c>
       <c r="BF122">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BG122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BH122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BI122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BJ122">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BK122">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:63">
@@ -24315,7 +24315,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>5357803</v>
+        <v>5357802</v>
       </c>
       <c r="C123" t="s">
         <v>63</v>
@@ -24330,43 +24330,43 @@
         <v>25</v>
       </c>
       <c r="G123" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H123" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123">
         <v>0</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M123">
         <v>0</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O123" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="P123" t="s">
         <v>77</v>
       </c>
       <c r="Q123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S123">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T123">
         <v>1.95</v>
@@ -24378,85 +24378,85 @@
         <v>7</v>
       </c>
       <c r="W123">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="X123">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Y123">
-        <v>2.95</v>
+        <v>2.89</v>
       </c>
       <c r="Z123">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AA123">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AB123">
         <v>1.06</v>
       </c>
       <c r="AC123">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AD123">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AE123">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF123">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AG123">
-        <v>9.550000000000001</v>
+        <v>10.75</v>
       </c>
       <c r="AH123">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AI123">
-        <v>2.93</v>
+        <v>3.4</v>
       </c>
       <c r="AJ123">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK123">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AL123">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="AM123">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AN123">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AO123">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AP123">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AQ123">
-        <v>1.36</v>
+        <v>2.09</v>
       </c>
       <c r="AR123">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AS123">
+        <v>2.17</v>
+      </c>
+      <c r="AT123">
+        <v>1.17</v>
+      </c>
+      <c r="AU123">
+        <v>1.8</v>
+      </c>
+      <c r="AV123">
         <v>1.33</v>
       </c>
-      <c r="AT123">
-        <v>1.5</v>
-      </c>
-      <c r="AU123">
-        <v>1.4</v>
-      </c>
-      <c r="AV123">
-        <v>1.36</v>
-      </c>
       <c r="AW123">
-        <v>2.76</v>
+        <v>3.13</v>
       </c>
       <c r="AX123">
         <v>0</v>
@@ -24471,7 +24471,7 @@
         <v>0</v>
       </c>
       <c r="BB123">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BC123">
         <v>0</v>
@@ -24483,22 +24483,22 @@
         <v>0</v>
       </c>
       <c r="BF123">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BH123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BI123">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BJ123">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BK123">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.21</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT7" t="n">
         <v>0.6899999999999999</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.21</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU9" t="n">
         <v>1.59</v>
@@ -2730,7 +2730,7 @@
         <v>1.23</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU11" t="n">
         <v>1.18</v>
@@ -2933,7 +2933,7 @@
         <v>1.57</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT15" t="n">
         <v>1.29</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT16" t="n">
         <v>1.77</v>
@@ -3948,7 +3948,7 @@
         <v>1.23</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU17" t="n">
         <v>1.19</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT18" t="n">
         <v>0.6899999999999999</v>
@@ -4557,7 +4557,7 @@
         <v>1.21</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -4760,7 +4760,7 @@
         <v>1.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.57</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT24" t="n">
         <v>1.43</v>
@@ -5569,7 +5569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT26" t="n">
         <v>1.77</v>
@@ -5975,7 +5975,7 @@
         <v>2.33</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT27" t="n">
         <v>1.29</v>
@@ -6181,7 +6181,7 @@
         <v>1.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU28" t="n">
         <v>1.98</v>
@@ -6990,10 +6990,10 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU32" t="n">
         <v>1.95</v>
@@ -7193,10 +7193,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU33" t="n">
         <v>2.04</v>
@@ -7396,7 +7396,7 @@
         <v>0.33</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>1.43</v>
@@ -7602,7 +7602,7 @@
         <v>1.57</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.68</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU36" t="n">
         <v>1.88</v>
@@ -9020,10 +9020,10 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU42" t="n">
         <v>1.57</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU43" t="n">
         <v>2.17</v>
@@ -9426,10 +9426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.75</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU45" t="n">
         <v>2.04</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU46" t="n">
         <v>1.75</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU47" t="n">
         <v>2.27</v>
@@ -10238,10 +10238,10 @@
         <v>1</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU48" t="n">
         <v>1.57</v>
@@ -10444,7 +10444,7 @@
         <v>1.31</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU50" t="n">
         <v>1.78</v>
@@ -10847,7 +10847,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT51" t="n">
         <v>0.6899999999999999</v>
@@ -11256,7 +11256,7 @@
         <v>1.23</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU53" t="n">
         <v>1.43</v>
@@ -11659,10 +11659,10 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.84</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT56" t="n">
         <v>1.29</v>
@@ -12065,7 +12065,7 @@
         <v>0.8</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT57" t="n">
         <v>0.6899999999999999</v>
@@ -12271,7 +12271,7 @@
         <v>1.21</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU58" t="n">
         <v>1.52</v>
@@ -12474,7 +12474,7 @@
         <v>1.31</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU59" t="n">
         <v>1.79</v>
@@ -12674,7 +12674,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT60" t="n">
         <v>1.77</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU61" t="n">
         <v>2.18</v>
@@ -13083,7 +13083,7 @@
         <v>1.57</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13283,10 +13283,10 @@
         <v>1.83</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.48</v>
@@ -13489,7 +13489,7 @@
         <v>1.57</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -13689,7 +13689,7 @@
         <v>0.83</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT65" t="n">
         <v>1.43</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>1.31</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU67" t="n">
         <v>1.78</v>
@@ -14301,7 +14301,7 @@
         <v>1.23</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU68" t="n">
         <v>1.43</v>
@@ -14704,7 +14704,7 @@
         <v>1.83</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
         <v>1.29</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT71" t="n">
         <v>1.77</v>
@@ -15110,10 +15110,10 @@
         <v>1.71</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.57</v>
@@ -15313,10 +15313,10 @@
         <v>1.14</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15516,10 +15516,10 @@
         <v>1.86</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU74" t="n">
         <v>1.93</v>
@@ -15722,7 +15722,7 @@
         <v>1.57</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU75" t="n">
         <v>1.64</v>
@@ -15922,7 +15922,7 @@
         <v>1.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT76" t="n">
         <v>1.43</v>
@@ -16531,7 +16531,7 @@
         <v>0.86</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16737,7 +16737,7 @@
         <v>1.31</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU80" t="n">
         <v>1.78</v>
@@ -17140,10 +17140,10 @@
         <v>1.63</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU82" t="n">
         <v>1.38</v>
@@ -17343,10 +17343,10 @@
         <v>1.38</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU83" t="n">
         <v>1.51</v>
@@ -17546,10 +17546,10 @@
         <v>0.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU84" t="n">
         <v>1.62</v>
@@ -17749,10 +17749,10 @@
         <v>1.88</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU85" t="n">
         <v>1.97</v>
@@ -17952,10 +17952,10 @@
         <v>0.63</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU86" t="n">
         <v>1.86</v>
@@ -19173,7 +19173,7 @@
         <v>1.21</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.54</v>
@@ -19779,7 +19779,7 @@
         <v>2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT95" t="n">
         <v>1.77</v>
@@ -20185,10 +20185,10 @@
         <v>0.44</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU97" t="n">
         <v>1.38</v>
@@ -20388,7 +20388,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT98" t="n">
         <v>0.6899999999999999</v>
@@ -20594,7 +20594,7 @@
         <v>1.21</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU99" t="n">
         <v>1.5</v>
@@ -20794,10 +20794,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU100" t="n">
         <v>1.94</v>
@@ -21203,7 +21203,7 @@
         <v>1.57</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU102" t="n">
         <v>1.64</v>
@@ -21406,7 +21406,7 @@
         <v>1.23</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.34</v>
@@ -21606,7 +21606,7 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT104" t="n">
         <v>1</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT106" t="n">
         <v>1.29</v>
@@ -22215,7 +22215,7 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT107" t="n">
         <v>0.6899999999999999</v>
@@ -22421,7 +22421,7 @@
         <v>1.21</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU108" t="n">
         <v>1.5</v>
@@ -22824,7 +22824,7 @@
         <v>0.73</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23030,7 +23030,7 @@
         <v>1.57</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.64</v>
@@ -23230,10 +23230,10 @@
         <v>1.4</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU112" t="n">
         <v>1.47</v>
@@ -23436,7 +23436,7 @@
         <v>1.57</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU113" t="n">
         <v>1.65</v>
@@ -23636,7 +23636,7 @@
         <v>1.36</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT114" t="n">
         <v>1.43</v>
@@ -24248,7 +24248,7 @@
         <v>1.57</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU117" t="n">
         <v>1.64</v>
@@ -24651,7 +24651,7 @@
         <v>1.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AT119" t="n">
         <v>1.29</v>
@@ -24857,7 +24857,7 @@
         <v>1.57</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AU120" t="n">
         <v>1.65</v>
@@ -25057,7 +25057,7 @@
         <v>1.33</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT121" t="n">
         <v>1.43</v>
@@ -25260,10 +25260,10 @@
         <v>1.55</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU122" t="n">
         <v>1.4</v>
@@ -25463,10 +25463,10 @@
         <v>1.27</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AU123" t="n">
         <v>1.8</v>
@@ -25666,10 +25666,10 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="AU124" t="n">
         <v>1.43</v>
@@ -26736,6 +26736,1021 @@
       </c>
       <c r="BK129" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5357811</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F130" t="n">
+        <v>27</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Budućnost</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Mornar</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>2</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>2</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['59', '90+5']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>5</v>
+      </c>
+      <c r="R130" t="n">
+        <v>2</v>
+      </c>
+      <c r="S130" t="n">
+        <v>7</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V130" t="n">
+        <v>6</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5357813</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F131" t="n">
+        <v>27</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="n">
+        <v>2</v>
+      </c>
+      <c r="N131" t="n">
+        <v>3</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>['-1', '-1']</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X131" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5357810</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>27</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Iskra</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2</v>
+      </c>
+      <c r="N132" t="n">
+        <v>4</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['44', '90+4']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['24', '73']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>3</v>
+      </c>
+      <c r="R132" t="n">
+        <v>4</v>
+      </c>
+      <c r="S132" t="n">
+        <v>7</v>
+      </c>
+      <c r="T132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2</v>
+      </c>
+      <c r="V132" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X132" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5357812</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45017.5</v>
+      </c>
+      <c r="F133" t="n">
+        <v>27</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Dečić</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>FK Jezero Plav</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['-1']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V133" t="n">
+        <v>5</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5357814</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45017.54166666666</v>
+      </c>
+      <c r="F134" t="n">
+        <v>27</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
+        <v>2</v>
+      </c>
+      <c r="N134" t="n">
+        <v>4</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>['45+2', '63']</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>['45', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>4</v>
+      </c>
+      <c r="R134" t="n">
+        <v>2</v>
+      </c>
+      <c r="S134" t="n">
+        <v>6</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V134" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK134"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.21</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU9" t="n">
         <v>1.59</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT10" t="n">
         <v>1.77</v>
@@ -2933,7 +2933,7 @@
         <v>1.57</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT15" t="n">
         <v>1.29</v>
@@ -3948,7 +3948,7 @@
         <v>1.23</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU17" t="n">
         <v>1.19</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU18" t="n">
         <v>2.02</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT19" t="n">
         <v>1.29</v>
@@ -4557,7 +4557,7 @@
         <v>1.21</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU20" t="n">
         <v>1.45</v>
@@ -4963,7 +4963,7 @@
         <v>1.57</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU22" t="n">
         <v>1.55</v>
@@ -5166,7 +5166,7 @@
         <v>1.21</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT24" t="n">
         <v>1.43</v>
@@ -5569,7 +5569,7 @@
         <v>0.5</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>2.33</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT27" t="n">
         <v>1.29</v>
@@ -6181,7 +6181,7 @@
         <v>1.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU28" t="n">
         <v>1.98</v>
@@ -6381,7 +6381,7 @@
         <v>0.33</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT29" t="n">
         <v>1</v>
@@ -6587,7 +6587,7 @@
         <v>1.23</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU30" t="n">
         <v>1.25</v>
@@ -6993,7 +6993,7 @@
         <v>1.21</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU32" t="n">
         <v>1.95</v>
@@ -7193,10 +7193,10 @@
         <v>1.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU33" t="n">
         <v>2.04</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU36" t="n">
         <v>1.88</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT37" t="n">
         <v>1.43</v>
@@ -8617,7 +8617,7 @@
         <v>1.57</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU40" t="n">
         <v>1.59</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU42" t="n">
         <v>1.57</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU43" t="n">
         <v>2.17</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU45" t="n">
         <v>2.04</v>
@@ -9832,10 +9832,10 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU46" t="n">
         <v>1.75</v>
@@ -10035,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU47" t="n">
         <v>2.27</v>
@@ -10241,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU48" t="n">
         <v>1.57</v>
@@ -10441,10 +10441,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU50" t="n">
         <v>1.78</v>
@@ -10847,10 +10847,10 @@
         <v>0.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU51" t="n">
         <v>1.76</v>
@@ -11256,7 +11256,7 @@
         <v>1.23</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU53" t="n">
         <v>1.43</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT55" t="n">
         <v>1.5</v>
@@ -12068,7 +12068,7 @@
         <v>1</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12271,7 +12271,7 @@
         <v>1.21</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU58" t="n">
         <v>1.52</v>
@@ -12471,10 +12471,10 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU59" t="n">
         <v>1.79</v>
@@ -12674,7 +12674,7 @@
         <v>1.6</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT60" t="n">
         <v>1.77</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU61" t="n">
         <v>2.18</v>
@@ -13083,7 +13083,7 @@
         <v>1.57</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13283,7 +13283,7 @@
         <v>1.83</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT63" t="n">
         <v>1.5</v>
@@ -13489,7 +13489,7 @@
         <v>1.57</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -13892,7 +13892,7 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT66" t="n">
         <v>1</v>
@@ -14095,10 +14095,10 @@
         <v>0.83</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU67" t="n">
         <v>1.78</v>
@@ -14301,7 +14301,7 @@
         <v>1.23</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU68" t="n">
         <v>1.43</v>
@@ -14504,7 +14504,7 @@
         <v>1.21</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU69" t="n">
         <v>1.53</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT71" t="n">
         <v>1.77</v>
@@ -15316,7 +15316,7 @@
         <v>1.21</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU73" t="n">
         <v>1.66</v>
@@ -15516,10 +15516,10 @@
         <v>1.86</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU74" t="n">
         <v>1.93</v>
@@ -15722,7 +15722,7 @@
         <v>1.57</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU75" t="n">
         <v>1.64</v>
@@ -15922,7 +15922,7 @@
         <v>1.14</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT76" t="n">
         <v>1.43</v>
@@ -16128,7 +16128,7 @@
         <v>1.57</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU77" t="n">
         <v>1.64</v>
@@ -16531,7 +16531,7 @@
         <v>0.86</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT79" t="n">
         <v>1</v>
@@ -16734,10 +16734,10 @@
         <v>0.14</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU80" t="n">
         <v>1.78</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU82" t="n">
         <v>1.38</v>
@@ -17343,10 +17343,10 @@
         <v>1.38</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU83" t="n">
         <v>1.51</v>
@@ -17549,7 +17549,7 @@
         <v>1.21</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU84" t="n">
         <v>1.62</v>
@@ -17749,7 +17749,7 @@
         <v>1.88</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT85" t="n">
         <v>1.5</v>
@@ -17952,10 +17952,10 @@
         <v>0.63</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU86" t="n">
         <v>1.86</v>
@@ -18358,10 +18358,10 @@
         <v>0.63</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU88" t="n">
         <v>1.75</v>
@@ -20188,7 +20188,7 @@
         <v>1</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU97" t="n">
         <v>1.38</v>
@@ -20388,10 +20388,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU98" t="n">
         <v>1.55</v>
@@ -20594,7 +20594,7 @@
         <v>1.21</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU99" t="n">
         <v>1.5</v>
@@ -20794,10 +20794,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU100" t="n">
         <v>1.94</v>
@@ -20997,7 +20997,7 @@
         <v>1.8</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT101" t="n">
         <v>1.77</v>
@@ -21203,7 +21203,7 @@
         <v>1.57</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU102" t="n">
         <v>1.64</v>
@@ -22012,7 +22012,7 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT106" t="n">
         <v>1.29</v>
@@ -22215,10 +22215,10 @@
         <v>0.8</v>
       </c>
       <c r="AS107" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU107" t="n">
         <v>1.99</v>
@@ -22421,7 +22421,7 @@
         <v>1.21</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU108" t="n">
         <v>1.5</v>
@@ -22621,7 +22621,7 @@
         <v>1.45</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT109" t="n">
         <v>1.29</v>
@@ -22824,7 +22824,7 @@
         <v>0.73</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23233,7 +23233,7 @@
         <v>1.21</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU112" t="n">
         <v>1.47</v>
@@ -23436,7 +23436,7 @@
         <v>1.57</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU113" t="n">
         <v>1.65</v>
@@ -23636,7 +23636,7 @@
         <v>1.36</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT114" t="n">
         <v>1.43</v>
@@ -24045,7 +24045,7 @@
         <v>1.23</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU116" t="n">
         <v>1.37</v>
@@ -24248,7 +24248,7 @@
         <v>1.57</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU117" t="n">
         <v>1.64</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -24651,7 +24651,7 @@
         <v>1.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT119" t="n">
         <v>1.29</v>
@@ -25260,10 +25260,10 @@
         <v>1.55</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU122" t="n">
         <v>1.4</v>
@@ -25463,10 +25463,10 @@
         <v>1.27</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU123" t="n">
         <v>1.8</v>
@@ -25669,7 +25669,7 @@
         <v>1.21</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU124" t="n">
         <v>1.43</v>
@@ -26478,7 +26478,7 @@
         <v>1.46</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AT128" t="n">
         <v>1.43</v>
@@ -26684,7 +26684,7 @@
         <v>1.57</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -26884,10 +26884,10 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU130" t="n">
         <v>1.74</v>
@@ -27090,7 +27090,7 @@
         <v>1</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU131" t="n">
         <v>1.38</v>
@@ -27493,10 +27493,10 @@
         <v>0.55</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="AU133" t="n">
         <v>1.4</v>
@@ -27696,10 +27696,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.31</v>
+        <v>2.14</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AU134" t="n">
         <v>1.92</v>
@@ -27751,6 +27751,1021 @@
       </c>
       <c r="BK134" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5357817</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45021.41666666666</v>
+      </c>
+      <c r="F135" t="n">
+        <v>28</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>FK Jezero Plav</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>4</v>
+      </c>
+      <c r="S135" t="n">
+        <v>4</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2</v>
+      </c>
+      <c r="V135" t="n">
+        <v>4</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X135" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5357815</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45021.5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>28</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>3</v>
+      </c>
+      <c r="N136" t="n">
+        <v>3</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['68', '78', '85']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>9</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1</v>
+      </c>
+      <c r="S136" t="n">
+        <v>10</v>
+      </c>
+      <c r="T136" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V136" t="n">
+        <v>4</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X136" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5357818</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45021.5</v>
+      </c>
+      <c r="F137" t="n">
+        <v>28</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Dečić</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Mornar</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>8</v>
+      </c>
+      <c r="R137" t="n">
+        <v>3</v>
+      </c>
+      <c r="S137" t="n">
+        <v>11</v>
+      </c>
+      <c r="T137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5357819</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45021.54166666666</v>
+      </c>
+      <c r="F138" t="n">
+        <v>28</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Budućnost</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Iskra</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>3</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['85', '88', '90+1']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>6</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1</v>
+      </c>
+      <c r="S138" t="n">
+        <v>7</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V138" t="n">
+        <v>6</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5357816</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45021.58333333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>28</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="n">
+        <v>3</v>
+      </c>
+      <c r="L139" t="n">
+        <v>3</v>
+      </c>
+      <c r="M139" t="n">
+        <v>4</v>
+      </c>
+      <c r="N139" t="n">
+        <v>7</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['28', '76', '90+4']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['14', '18', '73', '81']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>9</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" t="n">
+        <v>9</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V139" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Montenegro Montenegrin First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.21</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU11" t="n">
         <v>1.18</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU13" t="n">
         <v>2.01</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT17" t="n">
         <v>0.62</v>
@@ -4354,7 +4354,7 @@
         <v>1.21</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU19" t="n">
         <v>2.21</v>
@@ -4757,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT22" t="n">
         <v>1.43</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>0.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU24" t="n">
         <v>2.09</v>
@@ -5572,7 +5572,7 @@
         <v>1.29</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU25" t="n">
         <v>2.04</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT26" t="n">
         <v>1.77</v>
@@ -5978,7 +5978,7 @@
         <v>2.14</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU27" t="n">
         <v>2.02</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT28" t="n">
         <v>0.71</v>
@@ -6384,7 +6384,7 @@
         <v>1.21</v>
       </c>
       <c r="AT29" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU29" t="n">
         <v>2.48</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT30" t="n">
         <v>0.64</v>
@@ -6990,7 +6990,7 @@
         <v>1.5</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT32" t="n">
         <v>0.62</v>
@@ -7196,7 +7196,7 @@
         <v>1.29</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU33" t="n">
         <v>2.04</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU34" t="n">
         <v>1.57</v>
@@ -7599,10 +7599,10 @@
         <v>2.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU35" t="n">
         <v>1.68</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT36" t="n">
         <v>1.43</v>
@@ -8008,7 +8008,7 @@
         <v>1.21</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU37" t="n">
         <v>2.07</v>
@@ -8208,7 +8208,7 @@
         <v>1.75</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT38" t="n">
         <v>1.77</v>
@@ -8411,10 +8411,10 @@
         <v>1.75</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU39" t="n">
         <v>1.35</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT40" t="n">
         <v>0.64</v>
@@ -8820,7 +8820,7 @@
         <v>1.21</v>
       </c>
       <c r="AT41" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU41" t="n">
         <v>1.54</v>
@@ -9226,7 +9226,7 @@
         <v>2.14</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU43" t="n">
         <v>2.17</v>
@@ -9426,10 +9426,10 @@
         <v>1.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU44" t="n">
         <v>1.75</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT46" t="n">
         <v>0.71</v>
@@ -10444,7 +10444,7 @@
         <v>1.21</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU49" t="n">
         <v>1.88</v>
@@ -10847,7 +10847,7 @@
         <v>0.25</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT51" t="n">
         <v>0.64</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU52" t="n">
         <v>1.57</v>
@@ -11253,10 +11253,10 @@
         <v>1.8</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU53" t="n">
         <v>1.43</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.64</v>
@@ -11659,10 +11659,10 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU55" t="n">
         <v>1.84</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU56" t="n">
         <v>1.74</v>
@@ -13080,7 +13080,7 @@
         <v>0.83</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT62" t="n">
         <v>1.43</v>
@@ -13286,7 +13286,7 @@
         <v>1.29</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU63" t="n">
         <v>1.48</v>
@@ -13486,10 +13486,10 @@
         <v>1.67</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU64" t="n">
         <v>1.66</v>
@@ -13689,10 +13689,10 @@
         <v>0.83</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU65" t="n">
         <v>1.66</v>
@@ -13892,10 +13892,10 @@
         <v>1</v>
       </c>
       <c r="AS66" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT66" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU66" t="n">
         <v>1.93</v>
@@ -14298,7 +14298,7 @@
         <v>0.17</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT68" t="n">
         <v>0.71</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU70" t="n">
         <v>1.57</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU72" t="n">
         <v>1.57</v>
@@ -15313,7 +15313,7 @@
         <v>1.14</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT73" t="n">
         <v>1.43</v>
@@ -15516,10 +15516,10 @@
         <v>1.86</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU74" t="n">
         <v>1.93</v>
@@ -15719,7 +15719,7 @@
         <v>0.71</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT75" t="n">
         <v>0.62</v>
@@ -15925,7 +15925,7 @@
         <v>1.29</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.49</v>
@@ -16125,7 +16125,7 @@
         <v>0.57</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT77" t="n">
         <v>0.64</v>
@@ -16328,7 +16328,7 @@
         <v>1.71</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT78" t="n">
         <v>1.77</v>
@@ -16534,7 +16534,7 @@
         <v>2.14</v>
       </c>
       <c r="AT79" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU79" t="n">
         <v>1.97</v>
@@ -16940,7 +16940,7 @@
         <v>1.21</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU81" t="n">
         <v>1.59</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU82" t="n">
         <v>1.38</v>
@@ -17546,7 +17546,7 @@
         <v>0.5</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT84" t="n">
         <v>0.71</v>
@@ -17752,7 +17752,7 @@
         <v>2.14</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU85" t="n">
         <v>1.97</v>
@@ -17952,7 +17952,7 @@
         <v>0.63</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT86" t="n">
         <v>0.62</v>
@@ -18155,10 +18155,10 @@
         <v>1.88</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU87" t="n">
         <v>1.64</v>
@@ -18561,7 +18561,7 @@
         <v>1.88</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT89" t="n">
         <v>1.77</v>
@@ -18764,10 +18764,10 @@
         <v>0.75</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU90" t="n">
         <v>1.43</v>
@@ -18970,7 +18970,7 @@
         <v>1.21</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU91" t="n">
         <v>1.59</v>
@@ -19173,7 +19173,7 @@
         <v>1.21</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU92" t="n">
         <v>1.54</v>
@@ -19373,10 +19373,10 @@
         <v>1.33</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU93" t="n">
         <v>1.43</v>
@@ -19576,10 +19576,10 @@
         <v>0.78</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT94" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU94" t="n">
         <v>1.64</v>
@@ -19779,7 +19779,7 @@
         <v>2</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT95" t="n">
         <v>1.77</v>
@@ -19982,10 +19982,10 @@
         <v>1.78</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU96" t="n">
         <v>1.65</v>
@@ -21200,10 +21200,10 @@
         <v>1.56</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU102" t="n">
         <v>1.64</v>
@@ -21403,10 +21403,10 @@
         <v>1.6</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU103" t="n">
         <v>1.34</v>
@@ -21606,10 +21606,10 @@
         <v>0.8</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT104" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU104" t="n">
         <v>1.52</v>
@@ -21809,10 +21809,10 @@
         <v>1.5</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU105" t="n">
         <v>1.63</v>
@@ -22012,10 +22012,10 @@
         <v>1.6</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU106" t="n">
         <v>1.93</v>
@@ -22624,7 +22624,7 @@
         <v>1.21</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU109" t="n">
         <v>1.7</v>
@@ -22827,7 +22827,7 @@
         <v>1.29</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU110" t="n">
         <v>1.46</v>
@@ -23027,10 +23027,10 @@
         <v>1.45</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU111" t="n">
         <v>1.64</v>
@@ -23230,10 +23230,10 @@
         <v>1.4</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU112" t="n">
         <v>1.47</v>
@@ -23433,7 +23433,7 @@
         <v>1.4</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT113" t="n">
         <v>1.43</v>
@@ -23636,10 +23636,10 @@
         <v>1.36</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU114" t="n">
         <v>1.93</v>
@@ -24042,7 +24042,7 @@
         <v>0.73</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT116" t="n">
         <v>0.64</v>
@@ -24245,7 +24245,7 @@
         <v>0.73</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT117" t="n">
         <v>0.71</v>
@@ -24451,7 +24451,7 @@
         <v>1.21</v>
       </c>
       <c r="AT118" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU118" t="n">
         <v>1.67</v>
@@ -24654,7 +24654,7 @@
         <v>2.14</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU119" t="n">
         <v>1.96</v>
@@ -24854,10 +24854,10 @@
         <v>1.42</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU120" t="n">
         <v>1.65</v>
@@ -25060,7 +25060,7 @@
         <v>1</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU121" t="n">
         <v>1.38</v>
@@ -25263,7 +25263,7 @@
         <v>1.29</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU122" t="n">
         <v>1.4</v>
@@ -25463,7 +25463,7 @@
         <v>1.27</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT123" t="n">
         <v>1.43</v>
@@ -25666,7 +25666,7 @@
         <v>0.5</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT124" t="n">
         <v>0.62</v>
@@ -25869,10 +25869,10 @@
         <v>1.31</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="AU125" t="n">
         <v>1.41</v>
@@ -26075,7 +26075,7 @@
         <v>1.21</v>
       </c>
       <c r="AT126" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU126" t="n">
         <v>1.5</v>
@@ -26275,7 +26275,7 @@
         <v>1.67</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT127" t="n">
         <v>1.77</v>
@@ -26481,7 +26481,7 @@
         <v>1.21</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AU128" t="n">
         <v>1.71</v>
@@ -26681,7 +26681,7 @@
         <v>0.67</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT129" t="n">
         <v>0.64</v>
@@ -26884,7 +26884,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT130" t="n">
         <v>0.71</v>
@@ -27290,10 +27290,10 @@
         <v>1.54</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AU132" t="n">
         <v>1.53</v>
@@ -27699,7 +27699,7 @@
         <v>2.14</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU134" t="n">
         <v>1.92</v>
@@ -28105,7 +28105,7 @@
         <v>1.21</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AU136" t="n">
         <v>1.66</v>
@@ -28508,7 +28508,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS138" t="n">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="AT138" t="n">
         <v>0.64</v>
@@ -28766,6 +28766,1021 @@
       </c>
       <c r="BK139" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5357821</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45025.41666666666</v>
+      </c>
+      <c r="F140" t="n">
+        <v>29</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Iskra</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Dečić</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="n">
+        <v>4</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['22', '45+1', '63']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>5</v>
+      </c>
+      <c r="S140" t="n">
+        <v>10</v>
+      </c>
+      <c r="T140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5357823</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45025.41666666666</v>
+      </c>
+      <c r="F141" t="n">
+        <v>29</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>FK Jezero Plav</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Sutjeska</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>3</v>
+      </c>
+      <c r="R141" t="n">
+        <v>9</v>
+      </c>
+      <c r="S141" t="n">
+        <v>12</v>
+      </c>
+      <c r="T141" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2</v>
+      </c>
+      <c r="V141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5357824</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>29</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Jedinstvo</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Arsenal Tivat</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>1</v>
+      </c>
+      <c r="R142" t="n">
+        <v>6</v>
+      </c>
+      <c r="S142" t="n">
+        <v>7</v>
+      </c>
+      <c r="T142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5357822</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45025.54166666666</v>
+      </c>
+      <c r="F143" t="n">
+        <v>29</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Mornar</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Rudar</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>2</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['34', '79']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>4</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4</v>
+      </c>
+      <c r="S143" t="n">
+        <v>8</v>
+      </c>
+      <c r="T143" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V143" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X143" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5357820</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Montenegro Montenegrin First League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45025.58333333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>29</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Budućnost</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Petrovac</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>3</v>
+      </c>
+      <c r="L144" t="n">
+        <v>4</v>
+      </c>
+      <c r="M144" t="n">
+        <v>4</v>
+      </c>
+      <c r="N144" t="n">
+        <v>8</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['15', '44', '49', '68']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['25', '54', '81', '86']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>4</v>
+      </c>
+      <c r="R144" t="n">
+        <v>7</v>
+      </c>
+      <c r="S144" t="n">
+        <v>11</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V144" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
